--- a/tests/integration/resources/import-from-ms365.xlsx
+++ b/tests/integration/resources/import-from-ms365.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28224"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28308"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="29" documentId="11_A286D4D6AB873CC54CB3F5F4FAEFF6107E1CA1E1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A5FB924-3F55-4DE5-831A-E318EE0AE07F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E7E02FD-577F-420E-A61F-E8DF0FF79D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>Date and Time</t>
+  </si>
   <si>
     <t>Col1</t>
   </si>
@@ -55,6 +58,9 @@
   </si>
   <si>
     <t>truth</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
   <si>
     <t>Val1</t>
@@ -91,13 +97,37 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="h:mm;@"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -120,9 +150,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,93 +492,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" s="2" customFormat="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>8</v>
+    <row r="2" spans="1:10">
+      <c r="A2" s="4">
+        <v>44612.362500000003</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
       <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1">
         <v>45346</v>
       </c>
-      <c r="H2" t="b">
+      <c r="I2" t="b">
         <v>0</v>
       </c>
+      <c r="J2" s="5">
+        <v>0.78333333333333333</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>13</v>
+    <row r="3" spans="1:10">
+      <c r="A3" s="4">
+        <v>42522.567361111112</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3">
         <v>99</v>
       </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
       <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="1">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1">
         <v>42522</v>
       </c>
-      <c r="H3" t="b">
+      <c r="I3" t="b">
         <v>1</v>
+      </c>
+      <c r="J3" s="6">
+        <v>5.7638888888888892E-2</v>
       </c>
     </row>
   </sheetData>
@@ -552,15 +607,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010051627EA23EF2A44EB5F05AAC4BAF60F0" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e334dfbb8f6e07d13f7703f4301c4562">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fdc46372-1b58-4465-9232-6aafc8cccdad" xmlns:ns3="65ee553e-8720-4b37-a74a-dc115fed06e6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ed36fa0da95fed4c751385b2531bed80" ns2:_="" ns3:_="">
     <xsd:import namespace="fdc46372-1b58-4465-9232-6aafc8cccdad"/>
@@ -783,6 +829,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -795,11 +850,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFDA2663-6E86-4A15-95D5-4CDA09210A64}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E6D5857-64E0-4524-994B-45E05B7AD178}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFDA2663-6E86-4A15-95D5-4CDA09210A64}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
